--- a/storage/sql-database/Stats.xlsx
+++ b/storage/sql-database/Stats.xlsx
@@ -71,8 +71,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -142,8 +142,8 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
   </cellXfs>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
